--- a/DetectorNumeros/frecuencias/matrices_ocho_10.xlsx
+++ b/DetectorNumeros/frecuencias/matrices_ocho_10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Escuela\7mo_semestre\Inteligencia Artificial\CodigosRepo\Programas-2do-Parcial\DetectorNumeros\frecuencias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guere\Documents\Tec\7mo\IA\Programas 2do Parcial\DetectorNumeros\frecuencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0AD3DD4-9FB5-4EC1-A5AE-029740014A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB07CAEE-06BA-4FFF-B7AA-D982AAD8A83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_1" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="54" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="54" workbookViewId="0">
       <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
@@ -5231,8 +5231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503D8DEC-D27C-46DB-8D96-E4B825E30E38}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="AG40" sqref="AG40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DetectorNumeros/frecuencias/matrices_ocho_10.xlsx
+++ b/DetectorNumeros/frecuencias/matrices_ocho_10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guere\Documents\Tec\7mo\IA\Programas 2do Parcial\DetectorNumeros\frecuencias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Escuela\7mo_semestre\Inteligencia Artificial\CodigosRepo\Programas-2do-Parcial\DetectorNumeros\frecuencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB07CAEE-06BA-4FFF-B7AA-D982AAD8A83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D17ADD1-9101-4956-8D0C-89F2DA66024D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_1" sheetId="1" r:id="rId1"/>
@@ -379,16 +379,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AJ27" sqref="AJ27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="28" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1360,40 +1360,40 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1790,40 +1790,40 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2805,16 +2805,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AB28" sqref="A1:AB28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="28" width="2.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3054,10 +3054,10 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -3140,10 +3140,10 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3178,16 +3178,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3220,16 +3220,16 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3264,16 +3264,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -3306,16 +3306,16 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3350,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3436,16 +3436,16 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3478,16 +3478,16 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3522,16 +3522,16 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3564,16 +3564,16 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3608,16 +3608,16 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3650,16 +3650,16 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -3694,16 +3694,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3736,16 +3736,16 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3780,16 +3780,16 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3822,16 +3822,16 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3914,10 +3914,10 @@
         <v>1</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -3958,10 +3958,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -3994,10 +3994,10 @@
         <v>1</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4044,10 +4044,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4080,10 +4080,10 @@
         <v>1</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -4124,10 +4124,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -4172,10 +4172,10 @@
         <v>1</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -4210,16 +4210,16 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -4252,16 +4252,16 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -4296,16 +4296,16 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -4338,16 +4338,16 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -4382,16 +4382,16 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -4424,16 +4424,16 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -4468,16 +4468,16 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -4510,16 +4510,16 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -4554,16 +4554,16 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -4596,16 +4596,16 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -4640,16 +4640,16 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -4682,16 +4682,16 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -4726,16 +4726,16 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -4768,16 +4768,16 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -4812,16 +4812,16 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -4854,16 +4854,16 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -4898,10 +4898,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -4946,10 +4946,10 @@
         <v>1</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -4984,10 +4984,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -5032,10 +5032,10 @@
         <v>1</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -5231,19 +5231,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503D8DEC-D27C-46DB-8D96-E4B825E30E38}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="22" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.5546875" customWidth="1"/>
+    <col min="1" max="6" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="22" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>SUM(case_1:case_10!A1)</f>
         <v>0</v>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>SUM(case_1:case_10!A2)</f>
         <v>0</v>
@@ -5376,67 +5376,67 @@
       </c>
       <c r="E2">
         <f>SUM(case_1:case_10!E2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f>SUM(case_1:case_10!F2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f>SUM(case_1:case_10!G2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <f>SUM(case_1:case_10!H2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <f>SUM(case_1:case_10!I2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <f>SUM(case_1:case_10!J2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <f>SUM(case_1:case_10!K2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <f>SUM(case_1:case_10!L2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <f>SUM(case_1:case_10!M2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2">
         <f>SUM(case_1:case_10!N2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <f>SUM(case_1:case_10!O2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <f>SUM(case_1:case_10!P2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2">
         <f>SUM(case_1:case_10!Q2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R2">
         <f>SUM(case_1:case_10!R2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S2">
         <f>SUM(case_1:case_10!S2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <f>SUM(case_1:case_10!T2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U2">
         <f>SUM(case_1:case_10!U2)</f>
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>SUM(case_1:case_10!A3)</f>
         <v>0</v>
@@ -5490,19 +5490,19 @@
       </c>
       <c r="E3">
         <f>SUM(case_1:case_10!E3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f>SUM(case_1:case_10!F3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f>SUM(case_1:case_10!G3)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <f>SUM(case_1:case_10!H3)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3">
         <f>SUM(case_1:case_10!I3)</f>
@@ -5554,19 +5554,19 @@
       </c>
       <c r="U3">
         <f>SUM(case_1:case_10!U3)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V3">
         <f>SUM(case_1:case_10!V3)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W3">
         <f>SUM(case_1:case_10!W3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <f>SUM(case_1:case_10!X3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <f>SUM(case_1:case_10!Y3)</f>
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>SUM(case_1:case_10!A4)</f>
         <v>0</v>
@@ -5604,59 +5604,59 @@
       </c>
       <c r="E4">
         <f>SUM(case_1:case_10!E4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f>SUM(case_1:case_10!F4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <f>SUM(case_1:case_10!G4)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <f>SUM(case_1:case_10!H4)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <f>SUM(case_1:case_10!I4)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4">
         <f>SUM(case_1:case_10!J4)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K4">
         <f>SUM(case_1:case_10!K4)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L4">
         <f>SUM(case_1:case_10!L4)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M4">
         <f>SUM(case_1:case_10!M4)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N4">
         <f>SUM(case_1:case_10!N4)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4">
         <f>SUM(case_1:case_10!O4)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P4">
         <f>SUM(case_1:case_10!P4)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q4">
         <f>SUM(case_1:case_10!Q4)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R4">
         <f>SUM(case_1:case_10!R4)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S4">
         <f>SUM(case_1:case_10!S4)</f>
@@ -5668,19 +5668,19 @@
       </c>
       <c r="U4">
         <f>SUM(case_1:case_10!U4)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V4">
         <f>SUM(case_1:case_10!V4)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W4">
         <f>SUM(case_1:case_10!W4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X4">
         <f>SUM(case_1:case_10!X4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <f>SUM(case_1:case_10!Y4)</f>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>SUM(case_1:case_10!A5)</f>
         <v>0</v>
@@ -5718,27 +5718,27 @@
       </c>
       <c r="E5">
         <f>SUM(case_1:case_10!E5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f>SUM(case_1:case_10!F5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f>SUM(case_1:case_10!G5)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <f>SUM(case_1:case_10!H5)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <f>SUM(case_1:case_10!I5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <f>SUM(case_1:case_10!J5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <f>SUM(case_1:case_10!K5)</f>
@@ -5774,27 +5774,27 @@
       </c>
       <c r="S5">
         <f>SUM(case_1:case_10!S5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T5">
         <f>SUM(case_1:case_10!T5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U5">
         <f>SUM(case_1:case_10!U5)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V5">
         <f>SUM(case_1:case_10!V5)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W5">
         <f>SUM(case_1:case_10!W5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X5">
         <f>SUM(case_1:case_10!X5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <f>SUM(case_1:case_10!Y5)</f>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>SUM(case_1:case_10!A6)</f>
         <v>0</v>
@@ -5832,27 +5832,27 @@
       </c>
       <c r="E6">
         <f>SUM(case_1:case_10!E6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f>SUM(case_1:case_10!F6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f>SUM(case_1:case_10!G6)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <f>SUM(case_1:case_10!H6)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <f>SUM(case_1:case_10!I6)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <f>SUM(case_1:case_10!J6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f>SUM(case_1:case_10!K6)</f>
@@ -5888,27 +5888,27 @@
       </c>
       <c r="S6">
         <f>SUM(case_1:case_10!S6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <f>SUM(case_1:case_10!T6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <f>SUM(case_1:case_10!U6)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V6">
         <f>SUM(case_1:case_10!V6)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W6">
         <f>SUM(case_1:case_10!W6)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X6">
         <f>SUM(case_1:case_10!X6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <f>SUM(case_1:case_10!Y6)</f>
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>SUM(case_1:case_10!A7)</f>
         <v>0</v>
@@ -5946,27 +5946,27 @@
       </c>
       <c r="E7">
         <f>SUM(case_1:case_10!E7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f>SUM(case_1:case_10!F7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <f>SUM(case_1:case_10!G7)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <f>SUM(case_1:case_10!H7)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <f>SUM(case_1:case_10!I7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <f>SUM(case_1:case_10!J7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <f>SUM(case_1:case_10!K7)</f>
@@ -6002,27 +6002,27 @@
       </c>
       <c r="S7">
         <f>SUM(case_1:case_10!S7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <f>SUM(case_1:case_10!T7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <f>SUM(case_1:case_10!U7)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V7">
         <f>SUM(case_1:case_10!V7)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W7">
         <f>SUM(case_1:case_10!W7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X7">
         <f>SUM(case_1:case_10!X7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <f>SUM(case_1:case_10!Y7)</f>
@@ -6041,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>SUM(case_1:case_10!A8)</f>
         <v>0</v>
@@ -6060,27 +6060,27 @@
       </c>
       <c r="E8">
         <f>SUM(case_1:case_10!E8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f>SUM(case_1:case_10!F8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <f>SUM(case_1:case_10!G8)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <f>SUM(case_1:case_10!H8)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <f>SUM(case_1:case_10!I8)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <f>SUM(case_1:case_10!J8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f>SUM(case_1:case_10!K8)</f>
@@ -6116,27 +6116,27 @@
       </c>
       <c r="S8">
         <f>SUM(case_1:case_10!S8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <f>SUM(case_1:case_10!T8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <f>SUM(case_1:case_10!U8)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V8">
         <f>SUM(case_1:case_10!V8)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W8">
         <f>SUM(case_1:case_10!W8)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X8">
         <f>SUM(case_1:case_10!X8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <f>SUM(case_1:case_10!Y8)</f>
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>SUM(case_1:case_10!A9)</f>
         <v>0</v>
@@ -6174,27 +6174,27 @@
       </c>
       <c r="E9">
         <f>SUM(case_1:case_10!E9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f>SUM(case_1:case_10!F9)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f>SUM(case_1:case_10!G9)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <f>SUM(case_1:case_10!H9)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I9">
         <f>SUM(case_1:case_10!I9)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <f>SUM(case_1:case_10!J9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <f>SUM(case_1:case_10!K9)</f>
@@ -6230,27 +6230,27 @@
       </c>
       <c r="S9">
         <f>SUM(case_1:case_10!S9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <f>SUM(case_1:case_10!T9)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <f>SUM(case_1:case_10!U9)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V9">
         <f>SUM(case_1:case_10!V9)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W9">
         <f>SUM(case_1:case_10!W9)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X9">
         <f>SUM(case_1:case_10!X9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <f>SUM(case_1:case_10!Y9)</f>
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>SUM(case_1:case_10!A10)</f>
         <v>0</v>
@@ -6288,27 +6288,27 @@
       </c>
       <c r="E10">
         <f>SUM(case_1:case_10!E10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f>SUM(case_1:case_10!F10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <f>SUM(case_1:case_10!G10)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <f>SUM(case_1:case_10!H10)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I10">
         <f>SUM(case_1:case_10!I10)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <f>SUM(case_1:case_10!J10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <f>SUM(case_1:case_10!K10)</f>
@@ -6344,27 +6344,27 @@
       </c>
       <c r="S10">
         <f>SUM(case_1:case_10!S10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <f>SUM(case_1:case_10!T10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <f>SUM(case_1:case_10!U10)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V10">
         <f>SUM(case_1:case_10!V10)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W10">
         <f>SUM(case_1:case_10!W10)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X10">
         <f>SUM(case_1:case_10!X10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <f>SUM(case_1:case_10!Y10)</f>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>SUM(case_1:case_10!A11)</f>
         <v>0</v>
@@ -6402,83 +6402,83 @@
       </c>
       <c r="E11">
         <f>SUM(case_1:case_10!E11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <f>SUM(case_1:case_10!F11)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <f>SUM(case_1:case_10!G11)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <f>SUM(case_1:case_10!H11)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11">
         <f>SUM(case_1:case_10!I11)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <f>SUM(case_1:case_10!J11)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K11">
         <f>SUM(case_1:case_10!K11)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <f>SUM(case_1:case_10!L11)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11">
         <f>SUM(case_1:case_10!M11)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <f>SUM(case_1:case_10!N11)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O11">
         <f>SUM(case_1:case_10!O11)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P11">
         <f>SUM(case_1:case_10!P11)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q11">
         <f>SUM(case_1:case_10!Q11)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <f>SUM(case_1:case_10!R11)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S11">
         <f>SUM(case_1:case_10!S11)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <f>SUM(case_1:case_10!T11)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U11">
         <f>SUM(case_1:case_10!U11)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V11">
         <f>SUM(case_1:case_10!V11)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W11">
         <f>SUM(case_1:case_10!W11)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X11">
         <f>SUM(case_1:case_10!X11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <f>SUM(case_1:case_10!Y11)</f>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>SUM(case_1:case_10!A12)</f>
         <v>0</v>
@@ -6516,83 +6516,83 @@
       </c>
       <c r="E12">
         <f>SUM(case_1:case_10!E12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <f>SUM(case_1:case_10!F12)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <f>SUM(case_1:case_10!G12)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <f>SUM(case_1:case_10!H12)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I12">
         <f>SUM(case_1:case_10!I12)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J12">
         <f>SUM(case_1:case_10!J12)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K12">
         <f>SUM(case_1:case_10!K12)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <f>SUM(case_1:case_10!L12)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12">
         <f>SUM(case_1:case_10!M12)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N12">
         <f>SUM(case_1:case_10!N12)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <f>SUM(case_1:case_10!O12)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P12">
         <f>SUM(case_1:case_10!P12)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q12">
         <f>SUM(case_1:case_10!Q12)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R12">
         <f>SUM(case_1:case_10!R12)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S12">
         <f>SUM(case_1:case_10!S12)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T12">
         <f>SUM(case_1:case_10!T12)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U12">
         <f>SUM(case_1:case_10!U12)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V12">
         <f>SUM(case_1:case_10!V12)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W12">
         <f>SUM(case_1:case_10!W12)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X12">
         <f>SUM(case_1:case_10!X12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <f>SUM(case_1:case_10!Y12)</f>
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>SUM(case_1:case_10!A13)</f>
         <v>0</v>
@@ -6638,11 +6638,11 @@
       </c>
       <c r="G13">
         <f>SUM(case_1:case_10!G13)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H13">
         <f>SUM(case_1:case_10!H13)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I13">
         <f>SUM(case_1:case_10!I13)</f>
@@ -6686,27 +6686,27 @@
       </c>
       <c r="S13">
         <f>SUM(case_1:case_10!S13)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T13">
         <f>SUM(case_1:case_10!T13)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U13">
         <f>SUM(case_1:case_10!U13)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V13">
         <f>SUM(case_1:case_10!V13)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W13">
         <f>SUM(case_1:case_10!W13)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X13">
         <f>SUM(case_1:case_10!X13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <f>SUM(case_1:case_10!Y13)</f>
@@ -6725,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>SUM(case_1:case_10!A14)</f>
         <v>0</v>
@@ -6752,19 +6752,19 @@
       </c>
       <c r="G14">
         <f>SUM(case_1:case_10!G14)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <f>SUM(case_1:case_10!H14)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <f>SUM(case_1:case_10!I14)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J14">
         <f>SUM(case_1:case_10!J14)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K14">
         <f>SUM(case_1:case_10!K14)</f>
@@ -6800,19 +6800,19 @@
       </c>
       <c r="S14">
         <f>SUM(case_1:case_10!S14)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T14">
         <f>SUM(case_1:case_10!T14)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U14">
         <f>SUM(case_1:case_10!U14)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14">
         <f>SUM(case_1:case_10!V14)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W14">
         <f>SUM(case_1:case_10!W14)</f>
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>SUM(case_1:case_10!A15)</f>
         <v>0</v>
@@ -6858,27 +6858,27 @@
       </c>
       <c r="E15">
         <f>SUM(case_1:case_10!E15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <f>SUM(case_1:case_10!F15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <f>SUM(case_1:case_10!G15)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <f>SUM(case_1:case_10!H15)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <f>SUM(case_1:case_10!I15)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J15">
         <f>SUM(case_1:case_10!J15)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K15">
         <f>SUM(case_1:case_10!K15)</f>
@@ -6922,11 +6922,11 @@
       </c>
       <c r="U15">
         <f>SUM(case_1:case_10!U15)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V15">
         <f>SUM(case_1:case_10!V15)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W15">
         <f>SUM(case_1:case_10!W15)</f>
@@ -6953,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>SUM(case_1:case_10!A16)</f>
         <v>0</v>
@@ -6972,19 +6972,19 @@
       </c>
       <c r="E16">
         <f>SUM(case_1:case_10!E16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <f>SUM(case_1:case_10!F16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <f>SUM(case_1:case_10!G16)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H16">
         <f>SUM(case_1:case_10!H16)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I16">
         <f>SUM(case_1:case_10!I16)</f>
@@ -7036,19 +7036,19 @@
       </c>
       <c r="U16">
         <f>SUM(case_1:case_10!U16)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V16">
         <f>SUM(case_1:case_10!V16)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W16">
         <f>SUM(case_1:case_10!W16)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X16">
         <f>SUM(case_1:case_10!X16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16">
         <f>SUM(case_1:case_10!Y16)</f>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>SUM(case_1:case_10!A17)</f>
         <v>0</v>
@@ -7086,83 +7086,83 @@
       </c>
       <c r="E17">
         <f>SUM(case_1:case_10!E17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <f>SUM(case_1:case_10!F17)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <f>SUM(case_1:case_10!G17)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H17">
         <f>SUM(case_1:case_10!H17)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I17">
         <f>SUM(case_1:case_10!I17)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J17">
         <f>SUM(case_1:case_10!J17)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K17">
         <f>SUM(case_1:case_10!K17)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <f>SUM(case_1:case_10!L17)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17">
         <f>SUM(case_1:case_10!M17)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17">
         <f>SUM(case_1:case_10!N17)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O17">
         <f>SUM(case_1:case_10!O17)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P17">
         <f>SUM(case_1:case_10!P17)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q17">
         <f>SUM(case_1:case_10!Q17)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R17">
         <f>SUM(case_1:case_10!R17)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S17">
         <f>SUM(case_1:case_10!S17)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T17">
         <f>SUM(case_1:case_10!T17)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U17">
         <f>SUM(case_1:case_10!U17)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V17">
         <f>SUM(case_1:case_10!V17)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W17">
         <f>SUM(case_1:case_10!W17)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X17">
         <f>SUM(case_1:case_10!X17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <f>SUM(case_1:case_10!Y17)</f>
@@ -7181,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>SUM(case_1:case_10!A18)</f>
         <v>0</v>
@@ -7200,27 +7200,27 @@
       </c>
       <c r="E18">
         <f>SUM(case_1:case_10!E18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <f>SUM(case_1:case_10!F18)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <f>SUM(case_1:case_10!G18)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <f>SUM(case_1:case_10!H18)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I18">
         <f>SUM(case_1:case_10!I18)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18">
         <f>SUM(case_1:case_10!J18)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18">
         <f>SUM(case_1:case_10!K18)</f>
@@ -7256,27 +7256,27 @@
       </c>
       <c r="S18">
         <f>SUM(case_1:case_10!S18)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <f>SUM(case_1:case_10!T18)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U18">
         <f>SUM(case_1:case_10!U18)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V18">
         <f>SUM(case_1:case_10!V18)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W18">
         <f>SUM(case_1:case_10!W18)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X18">
         <f>SUM(case_1:case_10!X18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <f>SUM(case_1:case_10!Y18)</f>
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>SUM(case_1:case_10!A19)</f>
         <v>0</v>
@@ -7314,27 +7314,27 @@
       </c>
       <c r="E19">
         <f>SUM(case_1:case_10!E19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <f>SUM(case_1:case_10!F19)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <f>SUM(case_1:case_10!G19)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <f>SUM(case_1:case_10!H19)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I19">
         <f>SUM(case_1:case_10!I19)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19">
         <f>SUM(case_1:case_10!J19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <f>SUM(case_1:case_10!K19)</f>
@@ -7370,27 +7370,27 @@
       </c>
       <c r="S19">
         <f>SUM(case_1:case_10!S19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <f>SUM(case_1:case_10!T19)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U19">
         <f>SUM(case_1:case_10!U19)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V19">
         <f>SUM(case_1:case_10!V19)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W19">
         <f>SUM(case_1:case_10!W19)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X19">
         <f>SUM(case_1:case_10!X19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <f>SUM(case_1:case_10!Y19)</f>
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>SUM(case_1:case_10!A20)</f>
         <v>0</v>
@@ -7428,27 +7428,27 @@
       </c>
       <c r="E20">
         <f>SUM(case_1:case_10!E20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <f>SUM(case_1:case_10!F20)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <f>SUM(case_1:case_10!G20)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H20">
         <f>SUM(case_1:case_10!H20)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I20">
         <f>SUM(case_1:case_10!I20)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20">
         <f>SUM(case_1:case_10!J20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <f>SUM(case_1:case_10!K20)</f>
@@ -7484,27 +7484,27 @@
       </c>
       <c r="S20">
         <f>SUM(case_1:case_10!S20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <f>SUM(case_1:case_10!T20)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U20">
         <f>SUM(case_1:case_10!U20)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V20">
         <f>SUM(case_1:case_10!V20)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W20">
         <f>SUM(case_1:case_10!W20)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X20">
         <f>SUM(case_1:case_10!X20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <f>SUM(case_1:case_10!Y20)</f>
@@ -7523,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>SUM(case_1:case_10!A21)</f>
         <v>0</v>
@@ -7542,27 +7542,27 @@
       </c>
       <c r="E21">
         <f>SUM(case_1:case_10!E21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <f>SUM(case_1:case_10!F21)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <f>SUM(case_1:case_10!G21)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H21">
         <f>SUM(case_1:case_10!H21)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I21">
         <f>SUM(case_1:case_10!I21)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21">
         <f>SUM(case_1:case_10!J21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <f>SUM(case_1:case_10!K21)</f>
@@ -7598,27 +7598,27 @@
       </c>
       <c r="S21">
         <f>SUM(case_1:case_10!S21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <f>SUM(case_1:case_10!T21)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U21">
         <f>SUM(case_1:case_10!U21)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V21">
         <f>SUM(case_1:case_10!V21)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W21">
         <f>SUM(case_1:case_10!W21)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X21">
         <f>SUM(case_1:case_10!X21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21">
         <f>SUM(case_1:case_10!Y21)</f>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>SUM(case_1:case_10!A22)</f>
         <v>0</v>
@@ -7656,27 +7656,27 @@
       </c>
       <c r="E22">
         <f>SUM(case_1:case_10!E22)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <f>SUM(case_1:case_10!F22)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <f>SUM(case_1:case_10!G22)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H22">
         <f>SUM(case_1:case_10!H22)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I22">
         <f>SUM(case_1:case_10!I22)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22">
         <f>SUM(case_1:case_10!J22)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <f>SUM(case_1:case_10!K22)</f>
@@ -7712,27 +7712,27 @@
       </c>
       <c r="S22">
         <f>SUM(case_1:case_10!S22)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <f>SUM(case_1:case_10!T22)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U22">
         <f>SUM(case_1:case_10!U22)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V22">
         <f>SUM(case_1:case_10!V22)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W22">
         <f>SUM(case_1:case_10!W22)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X22">
         <f>SUM(case_1:case_10!X22)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <f>SUM(case_1:case_10!Y22)</f>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>SUM(case_1:case_10!A23)</f>
         <v>0</v>
@@ -7770,27 +7770,27 @@
       </c>
       <c r="E23">
         <f>SUM(case_1:case_10!E23)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <f>SUM(case_1:case_10!F23)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <f>SUM(case_1:case_10!G23)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H23">
         <f>SUM(case_1:case_10!H23)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I23">
         <f>SUM(case_1:case_10!I23)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23">
         <f>SUM(case_1:case_10!J23)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <f>SUM(case_1:case_10!K23)</f>
@@ -7826,27 +7826,27 @@
       </c>
       <c r="S23">
         <f>SUM(case_1:case_10!S23)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23">
         <f>SUM(case_1:case_10!T23)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U23">
         <f>SUM(case_1:case_10!U23)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V23">
         <f>SUM(case_1:case_10!V23)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W23">
         <f>SUM(case_1:case_10!W23)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X23">
         <f>SUM(case_1:case_10!X23)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <f>SUM(case_1:case_10!Y23)</f>
@@ -7865,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>SUM(case_1:case_10!A24)</f>
         <v>0</v>
@@ -7884,83 +7884,83 @@
       </c>
       <c r="E24">
         <f>SUM(case_1:case_10!E24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <f>SUM(case_1:case_10!F24)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <f>SUM(case_1:case_10!G24)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H24">
         <f>SUM(case_1:case_10!H24)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I24">
         <f>SUM(case_1:case_10!I24)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J24">
         <f>SUM(case_1:case_10!J24)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K24">
         <f>SUM(case_1:case_10!K24)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <f>SUM(case_1:case_10!L24)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M24">
         <f>SUM(case_1:case_10!M24)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24">
         <f>SUM(case_1:case_10!N24)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O24">
         <f>SUM(case_1:case_10!O24)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P24">
         <f>SUM(case_1:case_10!P24)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q24">
         <f>SUM(case_1:case_10!Q24)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R24">
         <f>SUM(case_1:case_10!R24)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S24">
         <f>SUM(case_1:case_10!S24)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T24">
         <f>SUM(case_1:case_10!T24)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U24">
         <f>SUM(case_1:case_10!U24)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V24">
         <f>SUM(case_1:case_10!V24)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W24">
         <f>SUM(case_1:case_10!W24)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X24">
         <f>SUM(case_1:case_10!X24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <f>SUM(case_1:case_10!Y24)</f>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>SUM(case_1:case_10!A25)</f>
         <v>0</v>
@@ -7998,19 +7998,19 @@
       </c>
       <c r="E25">
         <f>SUM(case_1:case_10!E25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <f>SUM(case_1:case_10!F25)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <f>SUM(case_1:case_10!G25)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H25">
         <f>SUM(case_1:case_10!H25)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I25">
         <f>SUM(case_1:case_10!I25)</f>
@@ -8062,19 +8062,19 @@
       </c>
       <c r="U25">
         <f>SUM(case_1:case_10!U25)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V25">
         <f>SUM(case_1:case_10!V25)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W25">
         <f>SUM(case_1:case_10!W25)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X25">
         <f>SUM(case_1:case_10!X25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <f>SUM(case_1:case_10!Y25)</f>
@@ -8093,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>SUM(case_1:case_10!A26)</f>
         <v>0</v>
@@ -8120,75 +8120,75 @@
       </c>
       <c r="G26">
         <f>SUM(case_1:case_10!G26)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H26">
         <f>SUM(case_1:case_10!H26)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I26">
         <f>SUM(case_1:case_10!I26)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J26">
         <f>SUM(case_1:case_10!J26)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K26">
         <f>SUM(case_1:case_10!K26)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L26">
         <f>SUM(case_1:case_10!L26)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M26">
         <f>SUM(case_1:case_10!M26)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N26">
         <f>SUM(case_1:case_10!N26)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O26">
         <f>SUM(case_1:case_10!O26)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P26">
         <f>SUM(case_1:case_10!P26)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q26">
         <f>SUM(case_1:case_10!Q26)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R26">
         <f>SUM(case_1:case_10!R26)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S26">
         <f>SUM(case_1:case_10!S26)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T26">
         <f>SUM(case_1:case_10!T26)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U26">
         <f>SUM(case_1:case_10!U26)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V26">
         <f>SUM(case_1:case_10!V26)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W26">
         <f>SUM(case_1:case_10!W26)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X26">
         <f>SUM(case_1:case_10!X26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <f>SUM(case_1:case_10!Y26)</f>
@@ -8207,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>SUM(case_1:case_10!A27)</f>
         <v>0</v>
@@ -8321,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>SUM(case_1:case_10!A28)</f>
         <v>0</v>
@@ -8444,16 +8444,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView zoomScale="58" workbookViewId="0">
-      <selection activeCell="AD32" sqref="AD32"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="28" width="2.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8553,52 +8553,52 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -8639,10 +8639,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -8687,10 +8687,10 @@
         <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -8725,46 +8725,46 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -8773,10 +8773,10 @@
         <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -8811,16 +8811,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -8853,16 +8853,16 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -8897,16 +8897,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -8969,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -8983,16 +8983,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -9025,16 +9025,16 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -9055,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -9069,16 +9069,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -9111,16 +9111,16 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -9155,16 +9155,16 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -9197,16 +9197,16 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -9227,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -9241,16 +9241,16 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -9283,16 +9283,16 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -9339,46 +9339,46 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -9399,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -9413,10 +9413,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -9425,46 +9425,46 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -9541,16 +9541,16 @@
         <v>1</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -9591,10 +9591,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -9627,10 +9627,10 @@
         <v>1</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -9657,7 +9657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -9671,16 +9671,16 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -9743,7 +9743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -9757,10 +9757,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -9805,10 +9805,10 @@
         <v>1</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -9829,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -9843,16 +9843,16 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -9885,16 +9885,16 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -9929,16 +9929,16 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -9971,16 +9971,16 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -10001,7 +10001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -10015,16 +10015,16 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -10057,16 +10057,16 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -10087,7 +10087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -10101,16 +10101,16 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -10143,16 +10143,16 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -10173,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -10229,16 +10229,16 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -10259,7 +10259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -10273,16 +10273,16 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -10315,16 +10315,16 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -10345,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -10359,16 +10359,16 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -10401,16 +10401,16 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -10457,46 +10457,46 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -10517,7 +10517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -10531,10 +10531,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -10579,10 +10579,10 @@
         <v>1</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -10623,52 +10623,52 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -10689,7 +10689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -10870,16 +10870,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="28" width="2.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -11997,7 +11997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -13296,16 +13296,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="111" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="28" width="2.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -14079,7 +14079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -14251,7 +14251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -14509,7 +14509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -14681,7 +14681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -15197,7 +15197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -15455,7 +15455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -15541,7 +15541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -15627,7 +15627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -15722,16 +15722,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="98" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="28" width="2.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -15817,7 +15817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -15903,7 +15903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -16075,7 +16075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -16161,7 +16161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -16247,7 +16247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -16333,7 +16333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -16677,7 +16677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -16763,7 +16763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -16849,7 +16849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -16935,7 +16935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -17021,7 +17021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -17107,7 +17107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -17279,7 +17279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -17451,7 +17451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -17537,7 +17537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -17623,7 +17623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -17795,7 +17795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -17967,7 +17967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -18053,7 +18053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -18148,16 +18148,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AF41" sqref="AF41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="28" width="2.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -18243,7 +18243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -18415,7 +18415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -18501,7 +18501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -18587,7 +18587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -18673,7 +18673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -18759,7 +18759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -19017,7 +19017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -19189,7 +19189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -19361,7 +19361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -19447,7 +19447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -19533,7 +19533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -19619,7 +19619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -19791,7 +19791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -19877,7 +19877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -20049,7 +20049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -20135,7 +20135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -20221,7 +20221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -20307,7 +20307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -20479,7 +20479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -20574,16 +20574,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="28" width="2.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -20755,7 +20755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -20841,7 +20841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -20927,7 +20927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -21013,7 +21013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -21099,7 +21099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -21185,7 +21185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -21271,7 +21271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -21357,7 +21357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -21443,7 +21443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -21529,7 +21529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -21615,7 +21615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -21701,7 +21701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -21787,7 +21787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -21873,7 +21873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -22045,7 +22045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -22131,7 +22131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -22217,7 +22217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -22303,7 +22303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -22389,7 +22389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -22475,7 +22475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -22647,7 +22647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -22733,7 +22733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -22819,7 +22819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -22905,7 +22905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -23000,16 +23000,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="E26" sqref="E26:W26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="28" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -23095,7 +23095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -23181,7 +23181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -23353,7 +23353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -23439,7 +23439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -23611,7 +23611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -23869,7 +23869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -24041,7 +24041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -24213,7 +24213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -24385,7 +24385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -24471,7 +24471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -24557,7 +24557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -24729,7 +24729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -24987,7 +24987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -25073,7 +25073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -25245,7 +25245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -25331,7 +25331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -25426,16 +25426,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView zoomScale="57" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="28" width="2.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -25521,7 +25521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -25607,7 +25607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -25779,7 +25779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -25951,7 +25951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -26209,7 +26209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -26295,7 +26295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -26467,7 +26467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -26553,7 +26553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -26639,7 +26639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -26811,7 +26811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -26897,7 +26897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -27069,7 +27069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -27155,7 +27155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -27241,7 +27241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -27327,7 +27327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -27413,7 +27413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -27499,7 +27499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -27671,7 +27671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -27757,7 +27757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
